--- a/BackTest/2019-10-27 BackTest DAC.xlsx
+++ b/BackTest/2019-10-27 BackTest DAC.xlsx
@@ -451,20 +451,14 @@
         <v>3.206666666666669</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.22</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
       </c>
@@ -492,20 +486,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,20 +521,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -574,20 +556,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -615,20 +591,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -656,20 +626,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -697,20 +661,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -738,20 +696,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -779,20 +731,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -820,20 +766,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -861,20 +801,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -902,20 +836,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -943,20 +871,14 @@
         <v>3.200000000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -984,20 +906,14 @@
         <v>3.196666666666669</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1025,20 +941,14 @@
         <v>3.196666666666669</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1066,20 +976,14 @@
         <v>3.196666666666669</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1107,20 +1011,14 @@
         <v>3.196666666666669</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1148,20 +1046,14 @@
         <v>3.193333333333335</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1189,20 +1081,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1230,20 +1116,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1271,20 +1151,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1312,20 +1186,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1353,20 +1221,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>3.17</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1394,20 +1256,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1435,20 +1291,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1476,20 +1326,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1517,20 +1361,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1558,20 +1396,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1599,20 +1431,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1640,20 +1466,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1681,20 +1501,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1722,20 +1536,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1763,20 +1571,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1804,20 +1606,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1845,20 +1641,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1886,20 +1676,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1927,20 +1711,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1968,20 +1746,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2009,20 +1781,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2050,20 +1816,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2091,20 +1851,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2132,20 +1886,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2173,20 +1921,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2214,20 +1956,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2255,20 +1991,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2296,20 +2026,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2337,20 +2061,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2378,20 +2096,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2419,20 +2131,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2460,20 +2166,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2501,20 +2201,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2542,20 +2236,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2583,20 +2271,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2624,20 +2306,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2665,20 +2341,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2706,20 +2376,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2747,20 +2411,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2788,20 +2446,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2829,20 +2481,14 @@
         <v>3.180000000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2870,20 +2516,14 @@
         <v>3.176666666666668</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2911,20 +2551,14 @@
         <v>3.180000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2952,20 +2586,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2993,20 +2621,14 @@
         <v>3.190000000000001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3034,20 +2656,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3075,20 +2691,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3116,20 +2726,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3157,20 +2761,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3198,20 +2796,14 @@
         <v>3.186666666666668</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3239,20 +2831,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3280,20 +2866,14 @@
         <v>3.183333333333335</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3321,20 +2901,14 @@
         <v>3.180000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3362,20 +2936,14 @@
         <v>3.180000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3403,20 +2971,14 @@
         <v>3.180000000000001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3444,20 +3006,14 @@
         <v>3.186666666666669</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3485,20 +3041,14 @@
         <v>3.193333333333335</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3526,20 +3076,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3567,20 +3111,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3608,20 +3146,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3649,20 +3181,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3690,20 +3216,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3731,20 +3251,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3772,20 +3286,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3813,20 +3321,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3854,20 +3356,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3895,20 +3391,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3936,20 +3426,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3977,20 +3461,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4018,20 +3496,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4059,20 +3531,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4100,20 +3566,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4141,20 +3601,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4182,20 +3636,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4223,20 +3671,14 @@
         <v>3.200000000000002</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4264,20 +3706,14 @@
         <v>3.233333333333336</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4305,20 +3741,14 @@
         <v>3.233333333333336</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>3.22</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4353,11 +3783,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4392,11 +3818,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4431,11 +3853,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4470,11 +3888,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4509,11 +3923,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4548,11 +3958,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4587,11 +3993,7 @@
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4626,11 +4028,7 @@
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4665,11 +4063,7 @@
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4704,11 +4098,7 @@
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4743,11 +4133,7 @@
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4782,11 +4168,7 @@
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4821,11 +4203,7 @@
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4860,11 +4238,7 @@
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4899,11 +4273,7 @@
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4938,11 +4308,7 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4977,11 +4343,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5016,11 +4378,7 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5055,11 +4413,7 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5094,11 +4448,7 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5133,11 +4483,7 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5172,11 +4518,7 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5204,20 +4546,14 @@
         <v>3.230000000000003</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>3.23</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5252,11 +4588,7 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5291,11 +4623,7 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5330,11 +4658,7 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5369,11 +4693,7 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5408,11 +4728,7 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5447,11 +4763,7 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5486,11 +4798,7 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5525,11 +4833,7 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5564,11 +4868,7 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5603,11 +4903,7 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5642,11 +4938,7 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5681,11 +4973,7 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5720,11 +5008,7 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5759,11 +5043,7 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5798,11 +5078,7 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5837,11 +5113,7 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5876,11 +5148,7 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5915,11 +5183,7 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5954,11 +5218,7 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5993,11 +5253,7 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6032,11 +5288,7 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6071,11 +5323,7 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6110,11 +5358,7 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6149,11 +5393,7 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6188,11 +5428,7 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6227,11 +5463,7 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6266,11 +5498,7 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6305,11 +5533,7 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6344,11 +5568,7 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6383,11 +5603,7 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6422,11 +5638,7 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6461,11 +5673,7 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6500,11 +5708,7 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6539,11 +5743,7 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6578,11 +5778,7 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6617,11 +5813,7 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6656,11 +5848,7 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6695,11 +5883,7 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6734,11 +5918,7 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6773,11 +5953,7 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6812,11 +5988,7 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6851,11 +6023,7 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6890,11 +6058,7 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6929,11 +6093,7 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6968,11 +6128,7 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7007,11 +6163,7 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7046,11 +6198,7 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7085,11 +6233,7 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7124,11 +6268,7 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7163,11 +6303,7 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7202,11 +6338,7 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7241,11 +6373,7 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7280,11 +6408,7 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7319,11 +6443,7 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7358,11 +6478,7 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7397,11 +6513,7 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7436,11 +6548,7 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7475,11 +6583,7 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7514,11 +6618,7 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -7546,20 +6646,14 @@
         <v>3.190000000000003</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -7587,20 +6681,14 @@
         <v>3.19666666666667</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>3.2</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -7635,11 +6723,7 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -7674,11 +6758,7 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -7713,11 +6793,7 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -7752,11 +6828,7 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -7791,11 +6863,7 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -7830,11 +6898,7 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -7869,11 +6933,7 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -7908,11 +6968,7 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7947,11 +7003,7 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7986,11 +7038,7 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8025,11 +7073,7 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8064,11 +7108,7 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8103,11 +7143,7 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8142,11 +7178,7 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8181,11 +7213,7 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8220,11 +7248,7 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8259,11 +7283,7 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8298,11 +7318,7 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8337,11 +7353,7 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8376,11 +7388,7 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8415,11 +7423,7 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -8454,11 +7458,7 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -8493,11 +7493,7 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -8532,11 +7528,7 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -8571,11 +7563,7 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -8610,11 +7598,7 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -8649,11 +7633,7 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -8688,11 +7668,7 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -8727,11 +7703,7 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -8766,11 +7738,7 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -8805,11 +7773,7 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +7808,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8883,11 +7843,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8922,11 +7878,7 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -8961,11 +7913,7 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9000,11 +7948,7 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9039,11 +7983,7 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9078,11 +8018,7 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9117,11 +8053,7 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9156,11 +8088,7 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9195,11 +8123,7 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9234,11 +8158,7 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9273,11 +8193,7 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9312,12 +8228,10 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9380,7 +8294,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
@@ -22152,13 +21066,17 @@
         <v>3.223333333333342</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I591" t="n">
         <v>0</v>
       </c>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K591" t="n">
+        <v>3.24</v>
+      </c>
       <c r="L591" t="inlineStr"/>
       <c r="M591" t="n">
         <v>1</v>
@@ -22187,14 +21105,22 @@
         <v>3.233333333333341</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
       </c>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
-      <c r="L592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K592" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L592" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M592" t="n">
         <v>1</v>
       </c>
@@ -22222,14 +21148,22 @@
         <v>3.226666666666675</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
       </c>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
-      <c r="L593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K593" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M593" t="n">
         <v>1</v>
       </c>
@@ -22257,14 +21191,22 @@
         <v>3.233333333333341</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
       </c>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
-      <c r="L594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="K594" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M594" t="n">
         <v>1</v>
       </c>
@@ -22292,14 +21234,22 @@
         <v>3.233333333333341</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>0</v>
       </c>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
-      <c r="L595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K595" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M595" t="n">
         <v>1</v>
       </c>
@@ -22333,8 +21283,14 @@
         <v>0</v>
       </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
-      <c r="L596" t="inlineStr"/>
+      <c r="K596" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M596" t="n">
         <v>1</v>
       </c>
@@ -22368,8 +21324,14 @@
         <v>0</v>
       </c>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
-      <c r="L597" t="inlineStr"/>
+      <c r="K597" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M597" t="n">
         <v>1</v>
       </c>
@@ -22403,8 +21365,14 @@
         <v>0</v>
       </c>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
-      <c r="L598" t="inlineStr"/>
+      <c r="K598" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M598" t="n">
         <v>1</v>
       </c>
@@ -22438,8 +21406,14 @@
         <v>0</v>
       </c>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
-      <c r="L599" t="inlineStr"/>
+      <c r="K599" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M599" t="n">
         <v>1</v>
       </c>
@@ -22473,8 +21447,14 @@
         <v>0</v>
       </c>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
-      <c r="L600" t="inlineStr"/>
+      <c r="K600" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M600" t="n">
         <v>1</v>
       </c>
@@ -22508,8 +21488,14 @@
         <v>0</v>
       </c>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
-      <c r="L601" t="inlineStr"/>
+      <c r="K601" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M601" t="n">
         <v>1</v>
       </c>
@@ -22537,14 +21523,22 @@
         <v>3.230000000000008</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I602" t="n">
         <v>0</v>
       </c>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
-      <c r="L602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K602" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M602" t="n">
         <v>1</v>
       </c>
@@ -22578,8 +21572,14 @@
         <v>0</v>
       </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
-      <c r="L603" t="inlineStr"/>
+      <c r="K603" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M603" t="n">
         <v>1</v>
       </c>
@@ -22613,8 +21613,14 @@
         <v>0</v>
       </c>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
-      <c r="L604" t="inlineStr"/>
+      <c r="K604" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M604" t="n">
         <v>1</v>
       </c>
@@ -22648,8 +21654,14 @@
         <v>0</v>
       </c>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
-      <c r="L605" t="inlineStr"/>
+      <c r="K605" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M605" t="n">
         <v>1</v>
       </c>
@@ -22683,8 +21695,14 @@
         <v>0</v>
       </c>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
-      <c r="L606" t="inlineStr"/>
+      <c r="K606" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M606" t="n">
         <v>1</v>
       </c>
@@ -22718,8 +21736,14 @@
         <v>0</v>
       </c>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
-      <c r="L607" t="inlineStr"/>
+      <c r="K607" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M607" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest DAC.xlsx
+++ b/BackTest/2019-10-27 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,10 +1243,14 @@
         <v>-3016703.290499999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.15</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1279,8 +1283,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1309,11 +1319,19 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1342,10 +1360,14 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.16</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1378,8 +1400,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1439,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1805,17 @@
         <v>-1836658.535299999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1808,7 +1848,11 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1881,17 @@
         <v>-2142135.780299999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1874,7 +1924,11 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1907,7 +1961,11 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1940,7 +1998,11 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1973,7 +2035,11 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2006,7 +2072,11 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2039,7 +2109,11 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2072,7 +2146,11 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2183,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2138,7 +2220,11 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2171,7 +2257,11 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2204,7 +2294,11 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2237,7 +2331,11 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2270,7 +2368,11 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,7 +2405,11 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2336,7 +2442,11 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2369,7 +2479,11 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2402,7 +2516,11 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2553,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2468,7 +2590,11 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2501,7 +2627,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2534,7 +2664,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2567,7 +2701,11 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2738,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2775,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2666,7 +2812,11 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2845,17 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2888,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2925,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2962,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2999,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2864,7 +3036,11 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2897,7 +3073,11 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3106,17 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.2</v>
+      </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2963,7 +3149,11 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2996,7 +3186,11 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3029,7 +3223,11 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3256,17 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3295,17 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.18</v>
+      </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3334,17 @@
         <v>-1520151.118799999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.18</v>
+      </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3373,17 @@
         <v>-1520151.118799999</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3194,7 +3416,11 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3227,7 +3453,11 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3260,7 +3490,11 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3289,11 +3523,17 @@
         <v>-1554628.944799999</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.18</v>
+      </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3322,11 +3562,17 @@
         <v>-1554628.944799999</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3355,11 +3601,17 @@
         <v>-2020187.973799999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3388,15 +3640,15 @@
         <v>-2020187.973799999</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
-      </c>
-      <c r="I91" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="J91" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3425,17 +3677,13 @@
         <v>-1740743.218799999</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
-      </c>
-      <c r="I92" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="J92" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L92" t="n">
@@ -3466,17 +3714,15 @@
         <v>-1740743.218799999</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>3.19</v>
       </c>
-      <c r="J93" t="n">
-        <v>3.18</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L93" t="n">
@@ -3507,15 +3753,17 @@
         <v>-2114483.829799999</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>3.19</v>
       </c>
-      <c r="J94" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3544,17 +3792,15 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>3.18</v>
       </c>
-      <c r="J95" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L95" t="n">
@@ -3585,17 +3831,15 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>3.19</v>
       </c>
-      <c r="J96" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L96" t="n">
@@ -3626,14 +3870,12 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>3.19</v>
       </c>
-      <c r="J97" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,14 +3909,12 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>3.19</v>
       </c>
-      <c r="J98" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,14 +3948,12 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>3.19</v>
       </c>
-      <c r="J99" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,14 +3987,12 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>3.19</v>
       </c>
-      <c r="J100" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,14 +4026,12 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>3.19</v>
       </c>
-      <c r="J101" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,14 +4065,12 @@
         <v>-2297371.2648</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>3.19</v>
       </c>
-      <c r="J102" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,14 +4104,12 @@
         <v>-2297371.2648</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>3.18</v>
       </c>
-      <c r="J103" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,14 +4143,12 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>3.18</v>
       </c>
-      <c r="J104" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,14 +4182,12 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>3.19</v>
       </c>
-      <c r="J105" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,14 +4221,12 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>3.19</v>
       </c>
-      <c r="J106" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,14 +4260,12 @@
         <v>-2213162.292799999</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>3.19</v>
       </c>
-      <c r="J107" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,14 +4299,12 @@
         <v>-1939919.495799999</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>3.18</v>
       </c>
-      <c r="J108" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4118,14 +4338,12 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>3.19</v>
       </c>
-      <c r="J109" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,14 +4377,12 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>3.18</v>
       </c>
-      <c r="J110" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4200,14 +4416,12 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>3.18</v>
       </c>
-      <c r="J111" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,14 +4455,12 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>3.19</v>
       </c>
-      <c r="J112" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4282,14 +4494,12 @@
         <v>-2045718.834799999</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>3.19</v>
       </c>
-      <c r="J113" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,14 +4533,12 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>3.18</v>
       </c>
-      <c r="J114" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,14 +4572,12 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>3.19</v>
       </c>
-      <c r="J115" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,14 +4611,12 @@
         <v>-1883540.168799999</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>3.19</v>
       </c>
-      <c r="J116" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,14 +4650,12 @@
         <v>-1627391.173799999</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>3.18</v>
       </c>
-      <c r="J117" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,14 +4689,12 @@
         <v>-1876636.262799999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>3.19</v>
       </c>
-      <c r="J118" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,14 +4728,12 @@
         <v>-2203348.862699999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>3.18</v>
       </c>
-      <c r="J119" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,14 +4767,12 @@
         <v>-1923528.236699999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>3.17</v>
       </c>
-      <c r="J120" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,14 +4806,12 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>3.18</v>
       </c>
-      <c r="J121" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4651,14 +4845,12 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>3.19</v>
       </c>
-      <c r="J122" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4692,14 +4884,12 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>3.19</v>
       </c>
-      <c r="J123" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,14 +4923,12 @@
         <v>-1981464.099499999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>3.19</v>
       </c>
-      <c r="J124" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,14 +4962,12 @@
         <v>-1981464.099499999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>3.18</v>
       </c>
-      <c r="J125" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,14 +5001,12 @@
         <v>-1738431.145499999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>3.18</v>
       </c>
-      <c r="J126" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,14 +5040,12 @@
         <v>-1868839.172499999</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>3.19</v>
       </c>
-      <c r="J127" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,14 +5079,12 @@
         <v>-1448561.712499999</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>3.18</v>
       </c>
-      <c r="J128" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,14 +5118,12 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>3.19</v>
       </c>
-      <c r="J129" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,14 +5157,12 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>3.18</v>
       </c>
-      <c r="J130" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,14 +5196,12 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>3.18</v>
       </c>
-      <c r="J131" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,14 +5235,12 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>3.18</v>
       </c>
-      <c r="J132" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,14 +5274,12 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>3.18</v>
       </c>
-      <c r="J133" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,14 +5313,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>3.18</v>
       </c>
-      <c r="J134" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,14 +5352,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>3.2</v>
       </c>
-      <c r="J135" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,14 +5391,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>3.2</v>
       </c>
-      <c r="J136" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5266,14 +5430,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>3.2</v>
       </c>
-      <c r="J137" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,14 +5469,10 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
-      </c>
-      <c r="I138" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J138" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5348,14 +5506,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>3.2</v>
       </c>
-      <c r="J139" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5389,14 +5545,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>3.2</v>
       </c>
-      <c r="J140" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5430,14 +5584,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>3.2</v>
       </c>
-      <c r="J141" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5471,14 +5623,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>3.2</v>
       </c>
-      <c r="J142" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5512,14 +5662,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>3.2</v>
       </c>
-      <c r="J143" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5553,14 +5701,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>3.2</v>
       </c>
-      <c r="J144" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5594,14 +5740,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>3.2</v>
       </c>
-      <c r="J145" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5635,14 +5779,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>3.2</v>
       </c>
-      <c r="J146" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5676,14 +5818,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>3.2</v>
       </c>
-      <c r="J147" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5717,14 +5857,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>3.2</v>
       </c>
-      <c r="J148" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5758,14 +5896,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>3.2</v>
       </c>
-      <c r="J149" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5799,14 +5935,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>3.2</v>
       </c>
-      <c r="J150" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5840,14 +5974,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>3.2</v>
       </c>
-      <c r="J151" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5881,14 +6013,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>3.2</v>
       </c>
-      <c r="J152" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5922,14 +6052,12 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>3.2</v>
       </c>
-      <c r="J153" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5963,14 +6091,12 @@
         <v>-898394.9226615141</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>3.2</v>
       </c>
-      <c r="J154" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6004,14 +6130,12 @@
         <v>-1353972.652661514</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>3.3</v>
       </c>
-      <c r="J155" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6045,14 +6169,12 @@
         <v>-1046015.958661514</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>3.2</v>
       </c>
-      <c r="J156" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6086,14 +6208,12 @@
         <v>-1429778.034061514</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>3.21</v>
       </c>
-      <c r="J157" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6130,9 +6250,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6166,12 +6284,12 @@
         <v>-1147866.957361514</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6205,14 +6323,12 @@
         <v>-1139941.239261514</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>3.23</v>
       </c>
-      <c r="J160" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6246,14 +6362,12 @@
         <v>-1476439.905261514</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>3.24</v>
       </c>
-      <c r="J161" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6287,12 +6401,12 @@
         <v>-1318551.809261514</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6326,14 +6440,12 @@
         <v>-1060145.126261514</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>3.22</v>
       </c>
-      <c r="J163" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6367,12 +6479,12 @@
         <v>-1364019.702261514</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6406,14 +6518,12 @@
         <v>-1362776.269861514</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>3.2</v>
       </c>
-      <c r="J165" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6447,14 +6557,12 @@
         <v>-1634202.589861514</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>3.23</v>
       </c>
-      <c r="J166" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6488,14 +6596,12 @@
         <v>-1402544.556861514</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>3.21</v>
       </c>
-      <c r="J167" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6529,14 +6635,12 @@
         <v>-1737794.284861514</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>3.23</v>
       </c>
-      <c r="J168" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6570,14 +6674,12 @@
         <v>-1546233.740861514</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>3.2</v>
       </c>
-      <c r="J169" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6611,14 +6713,12 @@
         <v>-1546233.740861514</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>3.23</v>
       </c>
-      <c r="J170" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6652,12 +6752,12 @@
         <v>-1856076.025861514</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6691,12 +6791,12 @@
         <v>-1856076.025861514</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6730,12 +6830,12 @@
         <v>-1534287.479861514</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6769,12 +6869,12 @@
         <v>-1809510.422861514</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I174" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,12 +6908,12 @@
         <v>-1520431.367861514</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6847,12 +6947,12 @@
         <v>-1711214.564861514</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I176" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6886,12 +6986,12 @@
         <v>-1453518.501761514</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I177" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6928,9 +7028,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6967,9 +7065,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7006,9 +7102,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7045,9 +7139,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7084,9 +7176,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7123,9 +7213,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7162,9 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7201,9 +7287,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7237,12 +7321,12 @@
         <v>-1862151.420761514</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>3.19</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7279,9 +7363,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7318,9 +7400,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7357,9 +7437,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7396,9 +7474,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7435,9 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7474,9 +7548,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7513,9 +7585,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7552,9 +7622,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7591,9 +7659,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7630,9 +7696,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7669,9 +7733,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7708,9 +7770,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7747,9 +7807,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7786,9 +7844,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7825,9 +7881,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7864,9 +7918,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7903,9 +7955,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7942,9 +7992,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7981,9 +8029,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8020,9 +8066,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8059,9 +8103,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8098,9 +8140,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8137,9 +8177,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8176,9 +8214,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8215,9 +8251,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8254,9 +8288,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8293,9 +8325,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8332,9 +8362,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8371,9 +8399,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8410,9 +8436,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8449,9 +8473,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8488,9 +8510,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8527,9 +8547,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8566,9 +8584,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8605,9 +8621,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8644,9 +8658,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8683,9 +8695,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8722,9 +8732,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8761,9 +8769,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8800,9 +8806,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8839,9 +8843,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8878,9 +8880,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8917,9 +8917,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8956,9 +8954,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8995,9 +8991,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9034,9 +9028,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9073,9 +9065,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9112,9 +9102,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9151,9 +9139,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,9 +9176,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9229,9 +9213,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9268,9 +9250,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9307,9 +9287,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9346,9 +9324,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9385,9 +9361,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9424,9 +9398,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9463,9 +9435,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9502,9 +9472,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9541,9 +9509,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9580,9 +9546,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9619,9 +9583,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9658,9 +9620,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9697,9 +9657,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9736,9 +9694,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9775,9 +9731,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9814,9 +9768,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9853,9 +9805,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9892,9 +9842,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9931,9 +9879,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9970,9 +9916,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10009,9 +9953,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10048,9 +9990,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10087,9 +10027,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10126,9 +10064,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10165,9 +10101,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10204,9 +10138,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10243,9 +10175,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10282,9 +10212,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10321,9 +10249,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10360,9 +10286,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10399,9 +10323,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10438,9 +10360,7 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10477,9 +10397,7 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10516,9 +10434,7 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10555,9 +10471,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10594,9 +10508,7 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10633,9 +10545,7 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10672,9 +10582,7 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10711,9 +10619,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10750,9 +10656,7 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10789,9 +10693,7 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10828,9 +10730,7 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10867,9 +10767,7 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,9 +10804,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10945,9 +10841,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10981,19 +10875,17 @@
         <v>1274301.377754219</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>3.19</v>
-      </c>
+      <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
-        <v>1.045156739811912</v>
+        <v>1</v>
       </c>
       <c r="M282" t="inlineStr"/>
     </row>
@@ -11020,11 +10912,15 @@
         <v>807562.3267542189</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11053,11 +10949,15 @@
         <v>556097.7287542189</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11086,11 +10986,15 @@
         <v>878247.0007542189</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11119,11 +11023,15 @@
         <v>878247.0007542189</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11156,7 +11064,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11189,7 +11101,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11218,11 +11134,15 @@
         <v>1185768.320754219</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11255,7 +11175,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11288,7 +11212,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11321,7 +11249,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11350,11 +11282,15 @@
         <v>1576727.646754219</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11383,11 +11319,15 @@
         <v>1816697.395754219</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11416,11 +11356,15 @@
         <v>1498267.661069951</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11449,11 +11393,15 @@
         <v>1665063.098769951</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11482,14 +11430,16 @@
         <v>2052310.302769951</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -11548,7 +11498,7 @@
         <v>1835840.331669951</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11614,7 +11564,7 @@
         <v>1817109.521669951</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11647,7 +11597,7 @@
         <v>1955041.302669951</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11680,7 +11630,7 @@
         <v>1634291.74566995</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11713,7 +11663,7 @@
         <v>1892880.16266995</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11746,7 +11696,7 @@
         <v>1432730.54166995</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11779,7 +11729,7 @@
         <v>1367237.35866995</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11812,7 +11762,7 @@
         <v>1745542.19266995</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -11845,7 +11795,7 @@
         <v>1624888.31366995</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11878,7 +11828,7 @@
         <v>1324449.907669951</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11911,7 +11861,7 @@
         <v>1324449.907669951</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11944,7 +11894,7 @@
         <v>1563676.912669951</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11977,7 +11927,7 @@
         <v>1563676.912669951</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12010,7 +11960,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12043,7 +11993,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12076,7 +12026,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12109,7 +12059,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12142,7 +12092,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12175,7 +12125,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12208,7 +12158,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12241,7 +12191,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12274,7 +12224,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12307,7 +12257,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12340,7 +12290,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12373,7 +12323,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12406,7 +12356,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12439,7 +12389,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12472,7 +12422,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12505,7 +12455,7 @@
         <v>938571.9729699508</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12538,7 +12488,7 @@
         <v>938571.9729699508</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12571,7 +12521,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12604,7 +12554,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12637,7 +12587,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12670,7 +12620,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12703,7 +12653,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12736,7 +12686,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12769,7 +12719,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12802,7 +12752,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12835,7 +12785,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12868,7 +12818,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12901,7 +12851,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12934,7 +12884,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12967,7 +12917,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13429,7 +13379,7 @@
         <v>629245.1441699506</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -13462,7 +13412,7 @@
         <v>629245.1441699506</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13495,7 +13445,7 @@
         <v>629245.1441699506</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13528,7 +13478,7 @@
         <v>921304.0519699506</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13561,7 +13511,7 @@
         <v>412396.0181699506</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13594,7 +13544,7 @@
         <v>615655.8321699506</v>
       </c>
       <c r="H361" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13627,7 +13577,7 @@
         <v>615655.8321699506</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13660,7 +13610,7 @@
         <v>473514.3211699506</v>
       </c>
       <c r="H363" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13693,7 +13643,7 @@
         <v>-169849.1875300494</v>
       </c>
       <c r="H364" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13726,7 +13676,7 @@
         <v>94137.76146995061</v>
       </c>
       <c r="H365" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13759,7 +13709,7 @@
         <v>94137.76146995061</v>
       </c>
       <c r="H366" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13792,7 +13742,7 @@
         <v>94137.76146995061</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13825,7 +13775,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H368" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13858,7 +13808,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13891,7 +13841,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H370" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13924,7 +13874,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H371" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13957,7 +13907,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H372" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13990,7 +13940,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H373" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14023,7 +13973,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14056,7 +14006,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H375" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14089,7 +14039,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14188,7 +14138,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14287,7 +14237,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14320,7 +14270,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -14353,7 +14303,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -14386,7 +14336,7 @@
         <v>-33311.73653004935</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14419,7 +14369,7 @@
         <v>74651.08246995065</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14452,7 +14402,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14485,7 +14435,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14518,7 +14468,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14551,7 +14501,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14584,7 +14534,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14617,7 +14567,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14650,7 +14600,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14683,7 +14633,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14716,7 +14666,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14749,7 +14699,7 @@
         <v>-274907.4151300493</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14782,7 +14732,7 @@
         <v>-313820.0301300493</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14815,7 +14765,7 @@
         <v>-292768.1081300493</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14848,7 +14798,7 @@
         <v>-292768.1081300493</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14881,7 +14831,7 @@
         <v>-292768.1081300493</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14914,7 +14864,7 @@
         <v>-292722.4888300493</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14947,7 +14897,7 @@
         <v>-297954.8956300493</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14980,7 +14930,7 @@
         <v>-297954.8956300493</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15013,7 +14963,7 @@
         <v>-102001.5808300493</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15079,7 +15029,7 @@
         <v>-102001.5808300493</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15112,7 +15062,7 @@
         <v>-102001.5808300493</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15145,7 +15095,7 @@
         <v>186156.7111699507</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15178,7 +15128,7 @@
         <v>-83066.1398300493</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15211,7 +15161,7 @@
         <v>-337050.0078300493</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15244,7 +15194,7 @@
         <v>-68148.84883004928</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15277,7 +15227,7 @@
         <v>-68148.84883004928</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15310,7 +15260,7 @@
         <v>-68148.84883004928</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15343,7 +15293,7 @@
         <v>-68148.84883004928</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15376,7 +15326,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15409,7 +15359,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15442,7 +15392,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15475,7 +15425,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15508,7 +15458,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15541,7 +15491,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15574,7 +15524,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15607,7 +15557,7 @@
         <v>10273.29316995072</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15640,7 +15590,7 @@
         <v>-141809.7158300493</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15673,7 +15623,7 @@
         <v>-141809.7158300493</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15706,7 +15656,7 @@
         <v>-141809.7158300493</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15739,7 +15689,7 @@
         <v>-137880.3691300493</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15772,7 +15722,7 @@
         <v>-137880.3691300493</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15805,7 +15755,7 @@
         <v>-137880.3691300493</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15838,7 +15788,7 @@
         <v>-137880.3691300493</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15871,7 +15821,7 @@
         <v>-356655.1381300493</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15904,7 +15854,7 @@
         <v>-356655.1381300493</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15937,7 +15887,7 @@
         <v>-474320.0461300493</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15970,7 +15920,7 @@
         <v>-410988.1090699284</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -16003,7 +15953,7 @@
         <v>-410988.1090699284</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -16036,7 +15986,7 @@
         <v>-410988.1090699284</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16069,7 +16019,7 @@
         <v>-410988.1090699284</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16102,7 +16052,7 @@
         <v>-529620.8290699284</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16135,7 +16085,7 @@
         <v>-668512.0510699283</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16168,7 +16118,7 @@
         <v>-533874.5390699283</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16201,7 +16151,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16234,7 +16184,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16267,7 +16217,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16300,7 +16250,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16333,7 +16283,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16366,7 +16316,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16399,7 +16349,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16432,7 +16382,7 @@
         <v>-598130.5090699284</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16465,7 +16415,7 @@
         <v>-598130.5090699284</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16498,7 +16448,7 @@
         <v>-598130.5090699284</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16531,7 +16481,7 @@
         <v>-399580.5039699284</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16564,7 +16514,7 @@
         <v>-499694.1243699284</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16597,7 +16547,7 @@
         <v>-250428.4193699285</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16630,7 +16580,7 @@
         <v>-526519.4583699284</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16663,7 +16613,7 @@
         <v>-526519.4583699284</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16696,7 +16646,7 @@
         <v>-291069.9973699284</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16729,7 +16679,7 @@
         <v>-530250.7903699283</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16762,7 +16712,7 @@
         <v>-350845.7283699283</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16795,7 +16745,7 @@
         <v>-350845.7283699283</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16894,7 +16844,7 @@
         <v>-649821.4383699284</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -23065,11 +23015,17 @@
         <v>-1524762.03006993</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
-      </c>
-      <c r="I648" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I648" t="n">
+        <v>3.22</v>
+      </c>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23098,11 +23054,17 @@
         <v>-1221232.48386993</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
-      </c>
-      <c r="I649" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I649" t="n">
+        <v>3.21</v>
+      </c>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23131,11 +23093,17 @@
         <v>-1501085.94386993</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
-      </c>
-      <c r="I650" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I650" t="n">
+        <v>3.24</v>
+      </c>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr"/>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23168,7 +23136,11 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr"/>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23201,7 +23173,11 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr"/>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23234,7 +23210,11 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23267,7 +23247,11 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23300,7 +23284,11 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr"/>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23333,7 +23321,11 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr"/>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23366,7 +23358,11 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr"/>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23399,7 +23395,11 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23432,7 +23432,11 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23465,7 +23469,11 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr"/>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23498,7 +23506,11 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr"/>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23531,7 +23543,11 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr"/>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23564,7 +23580,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23597,7 +23617,11 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23630,7 +23654,11 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr"/>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23663,7 +23691,11 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr"/>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23696,7 +23728,11 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr"/>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23729,7 +23765,11 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23762,7 +23802,11 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23795,7 +23839,11 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr"/>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23828,7 +23876,11 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr"/>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23861,7 +23913,11 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr"/>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23894,7 +23950,11 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr"/>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23927,7 +23987,11 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -23960,7 +24024,11 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -23993,13 +24061,17 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L676" t="n">
         <v>1</v>
       </c>
       <c r="M676" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest DAC.xlsx
+++ b/BackTest/2019-10-27 BackTest DAC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,14 +1243,10 @@
         <v>-3016703.290499999</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
@@ -1280,17 +1276,15 @@
         <v>-3016703.290499999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J27" t="n">
         <v>3.15</v>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1366,9 +1360,13 @@
         <v>3.16</v>
       </c>
       <c r="J29" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+        <v>3.15</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1397,17 +1395,15 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3.16</v>
+      </c>
       <c r="J30" t="n">
         <v>3.16</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1478,8 +1474,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1805,17 +1807,11 @@
         <v>-1836658.535299999</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1848,11 +1844,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1881,17 +1873,11 @@
         <v>-2142135.780299999</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1924,11 +1910,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1961,11 +1943,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1998,11 +1976,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2009,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2072,11 +2042,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2109,11 +2075,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2146,11 +2108,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2183,11 +2141,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2220,11 +2174,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2257,11 +2207,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2294,11 +2240,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2331,11 +2273,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2368,11 +2306,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2405,11 +2339,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2442,11 +2372,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2479,11 +2405,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2516,11 +2438,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2553,11 +2471,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2590,11 +2504,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2627,11 +2537,7 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2664,11 +2570,7 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2701,11 +2603,7 @@
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2738,11 +2636,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2775,11 +2669,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2812,11 +2702,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2845,17 +2731,11 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2888,11 +2768,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2925,11 +2801,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2962,11 +2834,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2999,11 +2867,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3036,11 +2900,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3073,11 +2933,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3106,17 +2962,11 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3149,11 +2999,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3186,11 +3032,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3065,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3256,17 +3094,11 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3295,17 +3127,11 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3334,17 +3160,11 @@
         <v>-1520151.118799999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3373,17 +3193,11 @@
         <v>-1520151.118799999</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3416,11 +3230,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3453,11 +3263,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3490,11 +3296,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3523,17 +3325,11 @@
         <v>-1554628.944799999</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3562,17 +3358,11 @@
         <v>-1554628.944799999</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3601,17 +3391,11 @@
         <v>-2020187.973799999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3644,11 +3428,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3681,11 +3461,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3714,17 +3490,11 @@
         <v>-1740743.218799999</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3753,17 +3523,11 @@
         <v>-2114483.829799999</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3792,17 +3556,11 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3831,17 +3589,11 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3870,17 +3622,11 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3909,17 +3655,11 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3948,17 +3688,11 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3987,17 +3721,11 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4026,17 +3754,11 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4065,17 +3787,11 @@
         <v>-2297371.2648</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4104,17 +3820,11 @@
         <v>-2297371.2648</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4143,17 +3853,11 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4182,17 +3886,11 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4221,17 +3919,11 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4260,17 +3952,11 @@
         <v>-2213162.292799999</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4299,17 +3985,11 @@
         <v>-1939919.495799999</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4338,17 +4018,11 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4377,17 +4051,11 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4416,17 +4084,11 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4455,17 +4117,11 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4494,17 +4150,11 @@
         <v>-2045718.834799999</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4533,17 +4183,11 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4572,17 +4216,11 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4611,17 +4249,11 @@
         <v>-1883540.168799999</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4650,17 +4282,11 @@
         <v>-1627391.173799999</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4689,17 +4315,11 @@
         <v>-1876636.262799999</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4728,17 +4348,11 @@
         <v>-2203348.862699999</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4767,17 +4381,11 @@
         <v>-1923528.236699999</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>3.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4806,17 +4414,11 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4845,17 +4447,11 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4884,17 +4480,11 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4923,17 +4513,11 @@
         <v>-1981464.099499999</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4962,17 +4546,11 @@
         <v>-1981464.099499999</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5001,17 +4579,11 @@
         <v>-1738431.145499999</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5040,17 +4612,11 @@
         <v>-1868839.172499999</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5079,17 +4645,11 @@
         <v>-1448561.712499999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5118,17 +4678,11 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5157,17 +4711,11 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5196,17 +4744,11 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5235,17 +4777,11 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5274,17 +4810,11 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5313,17 +4843,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>3.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5352,17 +4876,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5391,17 +4909,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5430,17 +4942,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5473,11 +4979,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5506,17 +5008,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5545,17 +5041,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5584,17 +5074,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5623,17 +5107,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5662,17 +5140,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5701,17 +5173,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5740,17 +5206,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5779,17 +5239,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5818,17 +5272,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5857,17 +5305,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5896,17 +5338,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5935,17 +5371,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5974,17 +5404,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6013,17 +5437,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6052,17 +5470,11 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6091,17 +5503,11 @@
         <v>-898394.9226615141</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6130,17 +5536,11 @@
         <v>-1353972.652661514</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>3.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6169,17 +5569,11 @@
         <v>-1046015.958661514</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6208,17 +5602,11 @@
         <v>-1429778.034061514</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>3.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6251,11 +5639,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6284,17 +5668,11 @@
         <v>-1147866.957361514</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>3.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6323,17 +5701,11 @@
         <v>-1139941.239261514</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>3.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6362,17 +5734,11 @@
         <v>-1476439.905261514</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6401,17 +5767,11 @@
         <v>-1318551.809261514</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>3.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6440,17 +5800,11 @@
         <v>-1060145.126261514</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>3.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6479,17 +5833,11 @@
         <v>-1364019.702261514</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>3.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6518,17 +5866,11 @@
         <v>-1362776.269861514</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6557,17 +5899,11 @@
         <v>-1634202.589861514</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>3.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6596,17 +5932,11 @@
         <v>-1402544.556861514</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>3.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6635,17 +5965,11 @@
         <v>-1737794.284861514</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6674,17 +5998,11 @@
         <v>-1546233.740861514</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6713,17 +6031,11 @@
         <v>-1546233.740861514</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>3.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6752,17 +6064,11 @@
         <v>-1856076.025861514</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>3.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6791,17 +6097,11 @@
         <v>-1856076.025861514</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6830,17 +6130,11 @@
         <v>-1534287.479861514</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6869,17 +6163,11 @@
         <v>-1809510.422861514</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>3.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6908,17 +6196,11 @@
         <v>-1520431.367861514</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6947,17 +6229,11 @@
         <v>-1711214.564861514</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>3.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6986,17 +6262,11 @@
         <v>-1453518.501761514</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>3.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7029,11 +6299,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7066,11 +6332,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7103,11 +6365,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7140,11 +6398,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7177,11 +6431,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7214,11 +6464,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7251,11 +6497,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7288,11 +6530,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7321,17 +6559,11 @@
         <v>-1862151.420761514</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>3.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7364,11 +6596,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7401,11 +6629,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7438,11 +6662,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7475,11 +6695,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7512,11 +6728,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7549,11 +6761,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7586,11 +6794,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7623,11 +6827,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7660,11 +6860,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7697,11 +6893,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7734,11 +6926,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7771,11 +6959,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7808,11 +6992,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7845,11 +7025,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7882,11 +7058,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7919,11 +7091,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7956,11 +7124,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7993,11 +7157,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8030,11 +7190,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8067,11 +7223,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8104,11 +7256,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8141,11 +7289,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8178,11 +7322,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8215,11 +7355,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8252,11 +7388,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8289,11 +7421,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +7454,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8363,11 +7487,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8400,11 +7520,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8437,11 +7553,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8474,11 +7586,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8511,11 +7619,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8548,11 +7652,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8585,11 +7685,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8622,11 +7718,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8659,11 +7751,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8692,15 +7780,11 @@
         <v>-1997612.289361513</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8729,15 +7813,11 @@
         <v>-1997612.289361513</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8770,11 +7850,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8807,11 +7883,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8844,11 +7916,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8881,11 +7949,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8918,11 +7982,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8955,11 +8015,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8992,11 +8048,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +8081,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9066,11 +8114,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9103,11 +8147,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9140,11 +8180,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9177,11 +8213,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9214,11 +8246,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9251,11 +8279,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9288,11 +8312,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9325,11 +8345,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9362,11 +8378,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9399,11 +8411,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9436,11 +8444,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9473,11 +8477,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9510,11 +8510,7 @@
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9547,11 +8543,7 @@
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9584,11 +8576,7 @@
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9621,11 +8609,7 @@
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9658,11 +8642,7 @@
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9695,11 +8675,7 @@
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9732,11 +8708,7 @@
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9769,11 +8741,7 @@
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9806,11 +8774,7 @@
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9843,11 +8807,7 @@
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9880,11 +8840,7 @@
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9917,11 +8873,7 @@
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9954,11 +8906,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9991,11 +8939,7 @@
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10028,11 +8972,7 @@
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10065,11 +9005,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10102,11 +9038,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10139,11 +9071,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10176,11 +9104,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10213,11 +9137,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10250,11 +9170,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10287,11 +9203,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10324,11 +9236,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10361,11 +9269,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10398,11 +9302,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10435,11 +9335,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10472,11 +9368,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10509,11 +9401,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10546,11 +9434,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10583,11 +9467,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10620,11 +9500,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10657,11 +9533,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10694,11 +9566,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10731,11 +9599,7 @@
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10768,11 +9632,7 @@
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10805,11 +9665,7 @@
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10842,11 +9698,7 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10879,11 +9731,7 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10916,11 +9764,7 @@
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10953,11 +9797,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10990,11 +9830,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11027,11 +9863,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11064,11 +9896,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11101,11 +9929,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11138,11 +9962,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11175,11 +9995,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11212,11 +10028,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11249,11 +10061,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11286,11 +10094,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11323,11 +10127,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11360,11 +10160,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11397,11 +10193,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11430,16 +10222,14 @@
         <v>2052310.302769951</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
       <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
@@ -11498,7 +10288,7 @@
         <v>1835840.331669951</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11564,7 +10354,7 @@
         <v>1817109.521669951</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11597,7 +10387,7 @@
         <v>1955041.302669951</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11630,7 +10420,7 @@
         <v>1634291.74566995</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11663,7 +10453,7 @@
         <v>1892880.16266995</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11696,7 +10486,7 @@
         <v>1432730.54166995</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -11729,7 +10519,7 @@
         <v>1367237.35866995</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -11960,7 +10750,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11993,7 +10783,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12026,7 +10816,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12059,7 +10849,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12092,7 +10882,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12125,7 +10915,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12158,7 +10948,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12191,7 +10981,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12224,7 +11014,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12257,7 +11047,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12290,7 +11080,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12323,7 +11113,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12356,7 +11146,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12389,7 +11179,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12422,7 +11212,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12455,7 +11245,7 @@
         <v>938571.9729699508</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12488,7 +11278,7 @@
         <v>938571.9729699508</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12521,7 +11311,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12554,7 +11344,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12587,7 +11377,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12620,7 +11410,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12653,7 +11443,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12686,7 +11476,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12719,7 +11509,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12752,7 +11542,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12785,7 +11575,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12818,7 +11608,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12851,7 +11641,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -12884,7 +11674,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -12917,7 +11707,7 @@
         <v>673439.4589699507</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13973,7 +12763,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14006,7 +12796,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14039,7 +12829,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14138,7 +12928,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14237,7 +13027,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -14336,7 +13126,7 @@
         <v>-33311.73653004935</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -14369,7 +13159,7 @@
         <v>74651.08246995065</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -14402,7 +13192,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -14435,7 +13225,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14468,7 +13258,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14501,7 +13291,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14534,7 +13324,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14567,7 +13357,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14600,7 +13390,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14633,7 +13423,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14666,7 +13456,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14699,7 +13489,7 @@
         <v>-274907.4151300493</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14732,7 +13522,7 @@
         <v>-313820.0301300493</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14765,7 +13555,7 @@
         <v>-292768.1081300493</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14798,7 +13588,7 @@
         <v>-292768.1081300493</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14831,7 +13621,7 @@
         <v>-292768.1081300493</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14864,7 +13654,7 @@
         <v>-292722.4888300493</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14897,7 +13687,7 @@
         <v>-297954.8956300493</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14930,7 +13720,7 @@
         <v>-297954.8956300493</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14963,7 +13753,7 @@
         <v>-102001.5808300493</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15029,7 +13819,7 @@
         <v>-102001.5808300493</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15062,7 +13852,7 @@
         <v>-102001.5808300493</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15095,7 +13885,7 @@
         <v>186156.7111699507</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15128,7 +13918,7 @@
         <v>-83066.1398300493</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15161,7 +13951,7 @@
         <v>-337050.0078300493</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15194,7 +13984,7 @@
         <v>-68148.84883004928</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15227,7 +14017,7 @@
         <v>-68148.84883004928</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15260,7 +14050,7 @@
         <v>-68148.84883004928</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15293,7 +14083,7 @@
         <v>-68148.84883004928</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15326,7 +14116,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15359,7 +14149,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15392,7 +14182,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15425,7 +14215,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15458,7 +14248,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15491,7 +14281,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15524,7 +14314,7 @@
         <v>-384782.0558300493</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15557,7 +14347,7 @@
         <v>10273.29316995072</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15590,7 +14380,7 @@
         <v>-141809.7158300493</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15623,7 +14413,7 @@
         <v>-141809.7158300493</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15656,7 +14446,7 @@
         <v>-141809.7158300493</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15689,7 +14479,7 @@
         <v>-137880.3691300493</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15722,7 +14512,7 @@
         <v>-137880.3691300493</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15755,7 +14545,7 @@
         <v>-137880.3691300493</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15788,7 +14578,7 @@
         <v>-137880.3691300493</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15821,7 +14611,7 @@
         <v>-356655.1381300493</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15854,7 +14644,7 @@
         <v>-356655.1381300493</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15887,7 +14677,7 @@
         <v>-474320.0461300493</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15920,7 +14710,7 @@
         <v>-410988.1090699284</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15953,7 +14743,7 @@
         <v>-410988.1090699284</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15986,7 +14776,7 @@
         <v>-410988.1090699284</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -16019,7 +14809,7 @@
         <v>-410988.1090699284</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16052,7 +14842,7 @@
         <v>-529620.8290699284</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16085,7 +14875,7 @@
         <v>-668512.0510699283</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16118,7 +14908,7 @@
         <v>-533874.5390699283</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -16151,7 +14941,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -16184,7 +14974,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16217,7 +15007,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -16250,7 +15040,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16283,7 +15073,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16316,7 +15106,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H445" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16349,7 +15139,7 @@
         <v>-817047.8470699284</v>
       </c>
       <c r="H446" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16382,7 +15172,7 @@
         <v>-598130.5090699284</v>
       </c>
       <c r="H447" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16415,7 +15205,7 @@
         <v>-598130.5090699284</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16448,7 +15238,7 @@
         <v>-598130.5090699284</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16481,7 +15271,7 @@
         <v>-399580.5039699284</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16514,7 +15304,7 @@
         <v>-499694.1243699284</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16547,7 +15337,7 @@
         <v>-250428.4193699285</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16580,7 +15370,7 @@
         <v>-526519.4583699284</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -16613,7 +15403,7 @@
         <v>-526519.4583699284</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -16646,7 +15436,7 @@
         <v>-291069.9973699284</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -16679,7 +15469,7 @@
         <v>-530250.7903699283</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -16712,7 +15502,7 @@
         <v>-350845.7283699283</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16745,7 +15535,7 @@
         <v>-350845.7283699283</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -16844,7 +15634,7 @@
         <v>-649821.4383699284</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -21761,7 +20551,7 @@
         <v>-1077900.667469929</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23015,17 +21805,11 @@
         <v>-1524762.03006993</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>3.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23054,17 +21838,11 @@
         <v>-1221232.48386993</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>3.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23093,17 +21871,11 @@
         <v>-1501085.94386993</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>3.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23136,11 +21908,7 @@
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23173,11 +21941,7 @@
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23210,11 +21974,7 @@
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23247,11 +22007,7 @@
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23284,11 +22040,7 @@
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23321,11 +22073,7 @@
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23358,11 +22106,7 @@
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23395,11 +22139,7 @@
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23432,11 +22172,7 @@
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23469,11 +22205,7 @@
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23506,11 +22238,7 @@
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23543,11 +22271,7 @@
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -23580,11 +22304,7 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23617,11 +22337,7 @@
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23654,11 +22370,7 @@
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23691,11 +22403,7 @@
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23728,11 +22436,7 @@
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23765,11 +22469,7 @@
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -23802,11 +22502,7 @@
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -23839,11 +22535,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -23876,11 +22568,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -23913,11 +22601,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -23950,11 +22634,7 @@
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -23987,11 +22667,7 @@
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24024,11 +22700,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24061,17 +22733,13 @@
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
       <c r="M676" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest DAC.xlsx
+++ b/BackTest/2019-10-27 BackTest DAC.xlsx
@@ -1276,14 +1276,10 @@
         <v>-3016703.290499999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
@@ -1313,19 +1309,11 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1354,19 +1342,11 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1395,14 +1375,10 @@
         <v>-2876067.363999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1435,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1474,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -2632,10 +2596,14 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J67" t="n">
+        <v>3.2</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2665,11 +2633,19 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2698,11 +2674,19 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2731,10 +2715,14 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3.2</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
@@ -2764,11 +2752,19 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2797,11 +2793,19 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2830,10 +2834,14 @@
         <v>-1614420.533599999</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>3.2</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
@@ -2863,11 +2871,19 @@
         <v>-1954046.181599999</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J74" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2896,11 +2912,19 @@
         <v>-1617221.671599999</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2929,11 +2953,19 @@
         <v>-1617221.671599999</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J76" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2962,11 +2994,19 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2995,11 +3035,19 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3028,11 +3076,19 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J79" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3061,11 +3117,19 @@
         <v>-1802788.430599999</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3094,11 +3158,19 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J81" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3127,11 +3199,19 @@
         <v>-1805584.690599999</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3160,11 +3240,19 @@
         <v>-1520151.118799999</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J83" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3196,8 +3284,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3229,8 +3323,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3259,11 +3359,19 @@
         <v>-1411506.907799999</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3295,8 +3403,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3328,8 +3442,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3361,8 +3481,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3394,8 +3520,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3427,8 +3559,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3460,8 +3598,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3493,8 +3637,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3523,11 +3673,19 @@
         <v>-2114483.829799999</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J94" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3559,8 +3717,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3589,11 +3753,19 @@
         <v>-1976523.052799999</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3625,8 +3797,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3658,8 +3836,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3691,8 +3875,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3724,8 +3914,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3757,8 +3953,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3790,8 +3992,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3820,11 +4028,19 @@
         <v>-2297371.2648</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3853,11 +4069,19 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3886,11 +4110,19 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3919,11 +4151,19 @@
         <v>-1955183.7298</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3952,11 +4192,19 @@
         <v>-2213162.292799999</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3985,11 +4233,19 @@
         <v>-1939919.495799999</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4018,11 +4274,19 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4051,11 +4315,19 @@
         <v>-2216530.797799999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J110" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4084,11 +4356,19 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4117,11 +4397,19 @@
         <v>-1905831.218799999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4150,11 +4438,19 @@
         <v>-2045718.834799999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J113" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4183,11 +4479,19 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4216,11 +4520,19 @@
         <v>-1599532.268799999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J115" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4249,11 +4561,19 @@
         <v>-1883540.168799999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4282,11 +4602,19 @@
         <v>-1627391.173799999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4315,11 +4643,19 @@
         <v>-1876636.262799999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J118" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4348,11 +4684,19 @@
         <v>-2203348.862699999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I119" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4381,11 +4725,19 @@
         <v>-1923528.236699999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I120" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4766,19 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4447,11 +4807,19 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J122" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4480,11 +4848,19 @@
         <v>-1690636.790699999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J123" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4513,11 +4889,19 @@
         <v>-1981464.099499999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I124" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J124" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4546,11 +4930,19 @@
         <v>-1981464.099499999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I125" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J125" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4579,11 +4971,19 @@
         <v>-1738431.145499999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J126" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4612,11 +5012,19 @@
         <v>-1868839.172499999</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4645,11 +5053,19 @@
         <v>-1448561.712499999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4678,11 +5094,19 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4711,11 +5135,19 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J130" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4744,11 +5176,19 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4777,11 +5217,19 @@
         <v>-1612273.936499999</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J132" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4813,8 +5261,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4843,11 +5297,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4876,11 +5338,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4912,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4945,8 +5421,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4978,8 +5460,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5008,11 +5496,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J139" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5044,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5074,11 +5576,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5107,11 +5617,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5140,11 +5658,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J143" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5173,11 +5699,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5206,11 +5740,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5239,11 +5781,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J146" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5272,11 +5822,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5305,11 +5863,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5338,11 +5904,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5371,11 +5945,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5404,11 +5986,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5437,11 +6027,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5470,11 +6068,19 @@
         <v>-1320839.258499999</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5503,11 +6109,19 @@
         <v>-898394.9226615141</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J154" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5539,8 +6153,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5572,8 +6192,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5605,8 +6231,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5638,8 +6270,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5671,8 +6309,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5704,8 +6348,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5737,8 +6387,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5770,8 +6426,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5803,8 +6465,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5836,8 +6504,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5869,8 +6543,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5902,8 +6582,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5935,8 +6621,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5968,8 +6660,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6001,8 +6699,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6034,8 +6738,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6067,8 +6777,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6100,8 +6816,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6133,8 +6855,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6166,8 +6894,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6199,8 +6933,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6232,8 +6972,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6265,8 +7011,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6298,8 +7050,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6331,8 +7089,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6364,8 +7128,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6397,8 +7167,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6430,8 +7206,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6463,8 +7245,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6496,8 +7284,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6529,8 +7323,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6562,8 +7362,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6595,8 +7401,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6628,8 +7440,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6661,8 +7479,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6694,8 +7518,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6727,8 +7557,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6760,8 +7596,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6793,8 +7635,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6826,8 +7674,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6859,8 +7713,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6892,8 +7752,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6925,8 +7791,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6958,8 +7830,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6991,8 +7869,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7024,8 +7908,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7057,8 +7947,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7090,8 +7986,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7123,8 +8025,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7156,8 +8064,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7189,8 +8103,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7222,8 +8142,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7255,8 +8181,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7288,8 +8220,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7321,8 +8259,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7354,8 +8298,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7387,8 +8337,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7420,8 +8376,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7453,8 +8415,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7486,8 +8454,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7519,8 +8493,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7552,8 +8532,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7585,8 +8571,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7618,8 +8610,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7651,8 +8649,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7684,8 +8688,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7717,8 +8727,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7750,8 +8766,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7780,11 +8802,17 @@
         <v>-1997612.289361513</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7813,11 +8841,17 @@
         <v>-1997612.289361513</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7849,8 +8883,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7882,8 +8922,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7915,8 +8961,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7948,8 +9000,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7981,8 +9039,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8014,8 +9078,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8047,8 +9117,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8080,8 +9156,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8113,8 +9195,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8146,8 +9234,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8179,8 +9273,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8212,8 +9312,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8245,8 +9351,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8278,8 +9390,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8311,8 +9429,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8344,8 +9468,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8377,8 +9507,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8410,8 +9546,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8443,8 +9585,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8476,8 +9624,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8509,8 +9663,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8542,8 +9702,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8575,8 +9741,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8608,8 +9780,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8641,8 +9819,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8674,8 +9858,14 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8707,8 +9897,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8740,8 +9936,14 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8773,8 +9975,14 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8806,8 +10014,14 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8839,8 +10053,14 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8872,8 +10092,14 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8905,8 +10131,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8938,8 +10170,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8971,8 +10209,14 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9004,8 +10248,14 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9037,8 +10287,14 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9070,8 +10326,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9103,8 +10365,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9136,8 +10404,14 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9169,8 +10443,14 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9202,8 +10482,14 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9235,8 +10521,14 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9268,8 +10560,14 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9301,8 +10599,14 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9334,8 +10638,14 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9367,8 +10677,14 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9400,8 +10716,14 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9433,8 +10755,14 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9466,8 +10794,14 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9499,8 +10833,14 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9532,8 +10872,14 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9565,8 +10911,14 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9598,8 +10950,14 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9631,8 +10989,14 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9664,8 +11028,14 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9697,8 +11067,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9730,8 +11106,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9763,8 +11145,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9796,8 +11184,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9829,8 +11223,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9862,8 +11262,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9895,8 +11301,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9928,8 +11340,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9961,8 +11379,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -9994,8 +11418,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10024,13 +11454,19 @@
         <v>1168268.644754219</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L291" t="n">
-        <v>1</v>
+        <v>1.035625</v>
       </c>
       <c r="M291" t="inlineStr"/>
     </row>
@@ -10057,7 +11493,7 @@
         <v>1576727.646754219</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10090,7 +11526,7 @@
         <v>1576727.646754219</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10123,7 +11559,7 @@
         <v>1816697.395754219</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10156,7 +11592,7 @@
         <v>1498267.661069951</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10189,7 +11625,7 @@
         <v>1665063.098769951</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10222,7 +11658,7 @@
         <v>2052310.302769951</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10255,7 +11691,7 @@
         <v>2059933.425669951</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10288,7 +11724,7 @@
         <v>1835840.331669951</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10354,7 +11790,7 @@
         <v>1817109.521669951</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10387,7 +11823,7 @@
         <v>1955041.302669951</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10420,7 +11856,7 @@
         <v>1634291.74566995</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10453,7 +11889,7 @@
         <v>1892880.16266995</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10486,7 +11922,7 @@
         <v>1432730.54166995</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10519,7 +11955,7 @@
         <v>1367237.35866995</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10552,7 +11988,7 @@
         <v>1745542.19266995</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10585,7 +12021,7 @@
         <v>1624888.31366995</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10651,7 +12087,7 @@
         <v>1324449.907669951</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10684,7 +12120,7 @@
         <v>1563676.912669951</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10717,7 +12153,7 @@
         <v>1563676.912669951</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10750,7 +12186,7 @@
         <v>1270674.552669951</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -13027,7 +14463,7 @@
         <v>290169.2384699506</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13126,7 +14562,7 @@
         <v>-33311.73653004935</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13159,7 +14595,7 @@
         <v>74651.08246995065</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13225,7 +14661,7 @@
         <v>-261179.2505300493</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -20551,7 +21987,7 @@
         <v>-1077900.667469929</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
